--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_998_8.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_998_8.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="136">
   <si>
     <t>Sezione</t>
   </si>
@@ -297,6 +297,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -472,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1438,7 +1444,7 @@
         <v>95</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>75</v>
@@ -1455,19 +1461,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1478,16 +1484,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>102</v>
@@ -1501,7 +1507,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>103</v>
@@ -1510,7 +1516,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>104</v>
@@ -1524,7 +1530,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>105</v>
@@ -1533,7 +1539,7 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>106</v>
@@ -1547,7 +1553,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>107</v>
@@ -1556,7 +1562,7 @@
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>108</v>
@@ -1570,7 +1576,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>109</v>
@@ -1579,7 +1585,7 @@
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>110</v>
@@ -1593,7 +1599,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>111</v>
@@ -1602,7 +1608,7 @@
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>112</v>
@@ -1616,19 +1622,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1639,16 +1645,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>118</v>
@@ -1662,16 +1668,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>120</v>
@@ -1685,76 +1691,76 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="C53" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="F53" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>124</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="E54" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>128</v>
@@ -1763,38 +1769,61 @@
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E57" s="2" t="s">
+      <c r="F57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57" s="2" t="s">
+      <c r="B58" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>16</v>
       </c>
     </row>
